--- a/biology/Microbiologie/Helicoprorodontidae/Helicoprorodontidae.xlsx
+++ b/biology/Microbiologie/Helicoprorodontidae/Helicoprorodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Helicoprorodontidae sont une famille de Ciliés de la classe des Gymnostomatea et de l'ordre des Haptorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Helicoprorodon, dérivé du grec ἕλιξ / helix, « spirale », et prorodon, par allusion au genre Prorodon Ehrenberg, 1833, littéralement « Prorondon spiralé », en référence aux « spires que décrit une cinétie[note 1] somatique autour du cytostome (orifice bucal) de l'organisme ».
 Prorodon dérive du grec προ / pro, « devant », et ὀδών / odōn, « dent », littéralement « qui a des dents sur l'avant ».
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1933 Kahl a décrit un cilié géant en forme de ver qu’il nomma Chaenea gigas, par la suite Fauré-Fremiet (1950) a remarqué les cinéties somatiques orales uniques chez cette espèce et a établi le genre Helicoprorodon, le nom de l’espèce devenant Helicoprorodon gigas (Kahl, 1933) Fauré-Fremiet, 1950[1].
-D'après Faure-Fremiet Helicoprorodon gigans est un grand cilié vermiforme contractile, atteignant 2,5 mm de longueur lorsqu'il est étendu et 1 mm lorsqu'il est contracté. Son appareil pharyngé est un panier apical tubulaire, effilé vers l'arrière, d'environ 50 à 60 μm de long et d'environ 8 à 10 μm de large. L'une des cinéties somatiques fait environ deux tours autour du cytostome le long d'une spirale serrée, constituée d'une crête cytoplasmique, les cinéties restantes n'atteignant pas le cytostome[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1933 Kahl a décrit un cilié géant en forme de ver qu’il nomma Chaenea gigas, par la suite Fauré-Fremiet (1950) a remarqué les cinéties somatiques orales uniques chez cette espèce et a établi le genre Helicoprorodon, le nom de l’espèce devenant Helicoprorodon gigas (Kahl, 1933) Fauré-Fremiet, 1950.
+D'après Faure-Fremiet Helicoprorodon gigans est un grand cilié vermiforme contractile, atteignant 2,5 mm de longueur lorsqu'il est étendu et 1 mm lorsqu'il est contracté. Son appareil pharyngé est un panier apical tubulaire, effilé vers l'arrière, d'environ 50 à 60 μm de long et d'environ 8 à 10 μm de large. L'une des cinéties somatiques fait environ deux tours autour du cytostome le long d'une spirale serrée, constituée d'une crête cytoplasmique, les cinéties restantes n'atteignant pas le cytostome.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Helicoprorodontidae sont des ciliés marins assez répandus sur toutes les mers du globe[3],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Helicoprorodontidae sont des ciliés marins assez répandus sur toutes les mers du globe,.
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 décembre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 décembre 2022) :
 Apotrachelotractus Long, Song &amp; Warren, 2009
-Helicoprorodon Fauré-Fremiet, 1950[4]
+Helicoprorodon Fauré-Fremiet, 1950
 Trachelotractus Foissner, 1997</t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Helicoprorodontidae Small &amp; Lynn, 1985 [5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Helicoprorodontidae Small &amp; Lynn, 1985 .
 </t>
         </is>
       </c>
